--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -65,7 +65,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>any</t>
+    <t>serve_no</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
   <si>
     <t>饼干</t>
@@ -1290,21 +1293,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1355,173 +1358,207 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="31.2" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3">
-        <v>76</v>
-      </c>
       <c r="E12" s="3">
-        <v>256</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3">
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
         <v>123</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="3">
         <v>511.999999999999</v>
       </c>
     </row>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -83,7 +83,7 @@
     <t>food_2</t>
   </si>
   <si>
-    <t>蛋挞</t>
+    <t>巧克力</t>
   </si>
   <si>
     <t>food_3</t>
@@ -101,7 +101,7 @@
     <t>food_5</t>
   </si>
   <si>
-    <t>鸡翅</t>
+    <t>芝士</t>
   </si>
   <si>
     <t>food_6</t>
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,61 +74,61 @@
     <t>饼干</t>
   </si>
   <si>
-    <t>food_1</t>
+    <t>cookies</t>
   </si>
   <si>
     <t>甜甜圈</t>
   </si>
   <si>
-    <t>food_2</t>
+    <t>circle</t>
   </si>
   <si>
     <t>巧克力</t>
   </si>
   <si>
-    <t>food_3</t>
+    <t>chocolates</t>
   </si>
   <si>
     <t>可乐</t>
   </si>
   <si>
-    <t>food_4</t>
+    <t>colo</t>
   </si>
   <si>
     <t>小蛋糕</t>
   </si>
   <si>
-    <t>food_5</t>
-  </si>
-  <si>
-    <t>芝士</t>
-  </si>
-  <si>
-    <t>food_6</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>鸡腿</t>
   </si>
   <si>
-    <t>food_7</t>
+    <t>stick</t>
   </si>
   <si>
     <t>汉堡</t>
   </si>
   <si>
-    <t>food_8</t>
+    <t>hamburger</t>
   </si>
   <si>
     <t>牛排</t>
   </si>
   <si>
-    <t>food_9</t>
+    <t>steak</t>
   </si>
   <si>
     <t>烤鸡</t>
   </si>
   <si>
-    <t>food_10</t>
+    <t>chick</t>
   </si>
 </sst>
 </file>
@@ -751,9 +751,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,269 +1299,271 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="1">
+        <v>300</v>
+      </c>
+      <c r="E12" s="4">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3">
-        <v>47</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="1">
+        <v>800</v>
+      </c>
+      <c r="E13" s="4">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="4">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3">
-        <v>123</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="4">
         <v>511.999999999999</v>
       </c>
     </row>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -1301,7 +1301,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1569,6 +1569,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1301,18 +1301,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" ht="31.2" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" ht="15.6" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1479,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="4">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>32</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1513,7 +1513,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="4">
-        <v>64</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1530,7 +1530,7 @@
         <v>800</v>
       </c>
       <c r="E13" s="4">
-        <v>128</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1547,7 +1547,7 @@
         <v>1500</v>
       </c>
       <c r="E14" s="4">
-        <v>256</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1564,7 +1564,7 @@
         <v>3000</v>
       </c>
       <c r="E15" s="4">
-        <v>511.999999999999</v>
+        <v>19683</v>
       </c>
     </row>
   </sheetData>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="28800" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -44,6 +31,9 @@
     <t>重量</t>
   </si>
   <si>
+    <t xml:space="preserve">半径 </t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -59,10 +49,16 @@
     <t>weight</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -134,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -157,6 +153,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -165,6 +183,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -173,34 +259,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,94 +290,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,25 +306,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,145 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +497,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,54 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +551,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,153 +582,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,54 +770,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1016,7 +1012,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1025,7 +1021,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1296,23 +1292,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1328,84 +1324,99 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:5">
+    <row r="4" ht="27" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1413,16 +1424,19 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1430,16 +1444,19 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1447,16 +1464,19 @@
       <c r="E8" s="4">
         <v>9</v>
       </c>
+      <c r="F8">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1464,16 +1484,19 @@
       <c r="E9" s="4">
         <v>27</v>
       </c>
+      <c r="F9">
+        <v>0.56</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
@@ -1481,16 +1504,19 @@
       <c r="E10" s="4">
         <v>81</v>
       </c>
+      <c r="F10">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -1498,16 +1524,19 @@
       <c r="E11" s="4">
         <v>243</v>
       </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
@@ -1515,16 +1544,19 @@
       <c r="E12" s="4">
         <v>729</v>
       </c>
+      <c r="F12">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>800</v>
@@ -1532,16 +1564,19 @@
       <c r="E13" s="4">
         <v>2187</v>
       </c>
+      <c r="F13">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>1500</v>
@@ -1549,22 +1584,28 @@
       <c r="E14" s="4">
         <v>6561</v>
       </c>
+      <c r="F14">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>3000</v>
       </c>
       <c r="E15" s="4">
         <v>19683</v>
+      </c>
+      <c r="F15">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -44,6 +44,9 @@
     <t>重量</t>
   </si>
   <si>
+    <t xml:space="preserve">半径 </t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -59,10 +62,16 @@
     <t>weight</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -1296,15 +1305,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
@@ -1312,7 +1321,7 @@
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="15.6" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1328,84 +1337,99 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:5">
+    <row r="4" ht="31.2" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1413,16 +1437,19 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1430,16 +1457,19 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1447,16 +1477,19 @@
       <c r="E8" s="4">
         <v>9</v>
       </c>
+      <c r="F8">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1464,16 +1497,19 @@
       <c r="E9" s="4">
         <v>27</v>
       </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
@@ -1481,16 +1517,19 @@
       <c r="E10" s="4">
         <v>81</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -1498,16 +1537,19 @@
       <c r="E11" s="4">
         <v>243</v>
       </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
@@ -1515,16 +1557,19 @@
       <c r="E12" s="4">
         <v>729</v>
       </c>
+      <c r="F12">
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>800</v>
@@ -1532,16 +1577,19 @@
       <c r="E13" s="4">
         <v>2187</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>1500</v>
@@ -1549,22 +1597,28 @@
       <c r="E14" s="4">
         <v>6561</v>
       </c>
+      <c r="F14">
+        <v>6.75</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>3000</v>
       </c>
       <c r="E15" s="4">
         <v>19683</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,18 +1310,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:6">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:6">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:6">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:6">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>

--- a/excel/prop_config.xlsx
+++ b/excel/prop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">半径 </t>
   </si>
   <si>
+    <t>缩小倍率</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>radius</t>
+  </si>
+  <si>
+    <t>narrow</t>
   </si>
   <si>
     <t>int</t>
@@ -760,14 +766,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,320 +1317,367 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.3</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.55</v>
       </c>
+      <c r="G7" s="2">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1.25</v>
       </c>
+      <c r="G8" s="2">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>27</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1.5</v>
       </c>
+      <c r="G9" s="2">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>81</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
+      <c r="G10" s="2">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>243</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
+      <c r="G11" s="2">
+        <v>0.07</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>729</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>4.25</v>
       </c>
+      <c r="G12" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>800</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>2187</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5</v>
       </c>
+      <c r="G13" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>1500</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>6561</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>6.75</v>
       </c>
+      <c r="G14" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>3000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>19683</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
